--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/116_GenericTableJsonRoundTrip.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/116_GenericTableJsonRoundTrip.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Original" sheetId="1" r:id="Re03b493dd9f74f62"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FromJsonRoundTrip" sheetId="2" r:id="R61e59a0a14a4461a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Original" sheetId="1" r:id="Rd17961553a134c65"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FromJsonRoundTrip" sheetId="2" r:id="Rc8ee0af7d4eb4767"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -31,17 +31,17 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/116_GenericTableJsonRoundTrip.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/116_GenericTableJsonRoundTrip.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Original" sheetId="1" r:id="Rd17961553a134c65"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FromJsonRoundTrip" sheetId="2" r:id="Rc8ee0af7d4eb4767"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Original" sheetId="1" r:id="R02f3b327b7d74120"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FromJsonRoundTrip" sheetId="2" r:id="R60d0e32a6b04416b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -31,17 +31,17 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/116_GenericTableJsonRoundTrip.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/116_GenericTableJsonRoundTrip.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Original" sheetId="1" r:id="R02f3b327b7d74120"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FromJsonRoundTrip" sheetId="2" r:id="R60d0e32a6b04416b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Original" sheetId="1" r:id="R2dd9990d9cf44b23"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FromJsonRoundTrip" sheetId="2" r:id="R2c964750b04e428e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
